--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>113.3518946666667</v>
+        <v>74.10005433333333</v>
       </c>
       <c r="H2">
-        <v>340.055684</v>
+        <v>222.300163</v>
       </c>
       <c r="I2">
-        <v>0.323929285314747</v>
+        <v>0.2282041889801584</v>
       </c>
       <c r="J2">
-        <v>0.323929285314747</v>
+        <v>0.2282041889801584</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N2">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O2">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P2">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q2">
-        <v>13866.21508123088</v>
+        <v>6217.902704132558</v>
       </c>
       <c r="R2">
-        <v>124795.935731078</v>
+        <v>55961.12433719302</v>
       </c>
       <c r="S2">
-        <v>0.3169121026617021</v>
+        <v>0.2180778917510919</v>
       </c>
       <c r="T2">
-        <v>0.316912102661702</v>
+        <v>0.2180778917510919</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>113.3518946666667</v>
+        <v>74.10005433333333</v>
       </c>
       <c r="H3">
-        <v>340.055684</v>
+        <v>222.300163</v>
       </c>
       <c r="I3">
-        <v>0.323929285314747</v>
+        <v>0.2282041889801584</v>
       </c>
       <c r="J3">
-        <v>0.323929285314747</v>
+        <v>0.2282041889801584</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.159072</v>
       </c>
       <c r="O3">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P3">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q3">
-        <v>43.79433575169423</v>
+        <v>28.62909939208178</v>
       </c>
       <c r="R3">
-        <v>394.1490217652481</v>
+        <v>257.661894528736</v>
       </c>
       <c r="S3">
-        <v>0.001000918776063724</v>
+        <v>0.001004096386713831</v>
       </c>
       <c r="T3">
-        <v>0.001000918776063724</v>
+        <v>0.001004096386713831</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>113.3518946666667</v>
+        <v>74.10005433333333</v>
       </c>
       <c r="H4">
-        <v>340.055684</v>
+        <v>222.300163</v>
       </c>
       <c r="I4">
-        <v>0.323929285314747</v>
+        <v>0.2282041889801584</v>
       </c>
       <c r="J4">
-        <v>0.323929285314747</v>
+        <v>0.2282041889801584</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.322294</v>
+        <v>3.510050666666667</v>
       </c>
       <c r="N4">
-        <v>6.966882</v>
+        <v>10.530152</v>
       </c>
       <c r="O4">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="P4">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
       <c r="Q4">
-        <v>263.236424873032</v>
+        <v>260.0949451127529</v>
       </c>
       <c r="R4">
-        <v>2369.127823857288</v>
+        <v>2340.854506014776</v>
       </c>
       <c r="S4">
-        <v>0.006016263876981232</v>
+        <v>0.009122200842352693</v>
       </c>
       <c r="T4">
-        <v>0.006016263876981232</v>
+        <v>0.009122200842352693</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>551.961533</v>
       </c>
       <c r="I5">
-        <v>0.5257859618835901</v>
+        <v>0.566620969983319</v>
       </c>
       <c r="J5">
-        <v>0.5257859618835899</v>
+        <v>0.566620969983319</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N5">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O5">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P5">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q5">
-        <v>22506.95310578581</v>
+        <v>15438.77909175376</v>
       </c>
       <c r="R5">
-        <v>202562.5779520723</v>
+        <v>138949.0118257838</v>
       </c>
       <c r="S5">
-        <v>0.5143960187749911</v>
+        <v>0.5414778190888718</v>
       </c>
       <c r="T5">
-        <v>0.5143960187749911</v>
+        <v>0.5414778190888718</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>551.961533</v>
       </c>
       <c r="I6">
-        <v>0.5257859618835901</v>
+        <v>0.566620969983319</v>
       </c>
       <c r="J6">
-        <v>0.5257859618835899</v>
+        <v>0.566620969983319</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.159072</v>
       </c>
       <c r="O6">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P6">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q6">
         <v>71.08479533081956</v>
@@ -818,10 +818,10 @@
         <v>639.7631579773761</v>
       </c>
       <c r="S6">
-        <v>0.001624641751450968</v>
+        <v>0.002493127190780903</v>
       </c>
       <c r="T6">
-        <v>0.001624641751450968</v>
+        <v>0.002493127190780903</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>551.961533</v>
       </c>
       <c r="I7">
-        <v>0.5257859618835901</v>
+        <v>0.566620969983319</v>
       </c>
       <c r="J7">
-        <v>0.5257859618835899</v>
+        <v>0.566620969983319</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.322294</v>
+        <v>3.510050666666667</v>
       </c>
       <c r="N7">
-        <v>6.966882</v>
+        <v>10.530152</v>
       </c>
       <c r="O7">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="P7">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
       <c r="Q7">
-        <v>427.272318772234</v>
+        <v>645.8043156270019</v>
       </c>
       <c r="R7">
-        <v>3845.450868950106</v>
+        <v>5812.238840643017</v>
       </c>
       <c r="S7">
-        <v>0.009765301357147978</v>
+        <v>0.0226500237036663</v>
       </c>
       <c r="T7">
-        <v>0.009765301357147978</v>
+        <v>0.02265002370366631</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>52.588828</v>
+        <v>66.62220766666667</v>
       </c>
       <c r="H8">
-        <v>157.766484</v>
+        <v>199.866623</v>
       </c>
       <c r="I8">
-        <v>0.1502847528016631</v>
+        <v>0.2051748410365226</v>
       </c>
       <c r="J8">
-        <v>0.1502847528016631</v>
+        <v>0.2051748410365226</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>122.328922</v>
+        <v>83.91225566666667</v>
       </c>
       <c r="N8">
-        <v>366.986766</v>
+        <v>251.736767</v>
       </c>
       <c r="O8">
-        <v>0.9783373008518612</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="P8">
-        <v>0.9783373008518613</v>
+        <v>0.9556261553553385</v>
       </c>
       <c r="Q8">
-        <v>6433.134638483415</v>
+        <v>5590.419722803093</v>
       </c>
       <c r="R8">
-        <v>57898.21174635074</v>
+        <v>50313.77750522784</v>
       </c>
       <c r="S8">
-        <v>0.1470291794151683</v>
+        <v>0.1960704445153749</v>
       </c>
       <c r="T8">
-        <v>0.1470291794151682</v>
+        <v>0.1960704445153748</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>52.588828</v>
+        <v>66.62220766666667</v>
       </c>
       <c r="H9">
-        <v>157.766484</v>
+        <v>199.866623</v>
       </c>
       <c r="I9">
-        <v>0.1502847528016631</v>
+        <v>0.2051748410365226</v>
       </c>
       <c r="J9">
-        <v>0.1502847528016631</v>
+        <v>0.2051748410365226</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.159072</v>
       </c>
       <c r="O9">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="P9">
-        <v>0.003089929874945324</v>
+        <v>0.00439999103960854</v>
       </c>
       <c r="Q9">
-        <v>20.31807934920534</v>
+        <v>25.73997849487289</v>
       </c>
       <c r="R9">
-        <v>182.862714142848</v>
+        <v>231.659806453856</v>
       </c>
       <c r="S9">
-        <v>0.0004643693474306318</v>
+        <v>0.0009027674621138063</v>
       </c>
       <c r="T9">
-        <v>0.0004643693474306316</v>
+        <v>0.0009027674621138062</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>52.588828</v>
+        <v>66.62220766666667</v>
       </c>
       <c r="H10">
-        <v>157.766484</v>
+        <v>199.866623</v>
       </c>
       <c r="I10">
-        <v>0.1502847528016631</v>
+        <v>0.2051748410365226</v>
       </c>
       <c r="J10">
-        <v>0.1502847528016631</v>
+        <v>0.2051748410365226</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.322294</v>
+        <v>3.510050666666667</v>
       </c>
       <c r="N10">
-        <v>6.966882</v>
+        <v>10.530152</v>
       </c>
       <c r="O10">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505296</v>
       </c>
       <c r="P10">
-        <v>0.0185727692731934</v>
+        <v>0.03997385360505297</v>
       </c>
       <c r="Q10">
-        <v>122.126719731432</v>
+        <v>233.8473244351885</v>
       </c>
       <c r="R10">
-        <v>1099.140477582888</v>
+        <v>2104.625919916696</v>
       </c>
       <c r="S10">
-        <v>0.002791204039064195</v>
+        <v>0.008201629059033969</v>
       </c>
       <c r="T10">
-        <v>0.002791204039064194</v>
+        <v>0.008201629059033969</v>
       </c>
     </row>
   </sheetData>
